--- a/Power BI入门数据源/项目2数据源数据/数据分析/西安数据.xlsx
+++ b/Power BI入门数据源/项目2数据源数据/数据分析/西安数据.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75583299-CD71-4127-99B2-9769F3690BC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
   <si>
     <t>标题</t>
   </si>
@@ -538,18 +549,29 @@
 4、认真负责，具有良好的团队合作能力及沟通能力
 5、上班时间为每周一到周五，需要在办公室坐班</t>
   </si>
+  <si>
+    <t>公司规模1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts x14ac:knownFonts="1" count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,10 +934,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,8 +986,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1030,12 @@
       <c r="M2" t="s">
         <v>25</v>
       </c>
+      <c r="N2" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M2,1))),M2,NULL)</f>
+        <v>2000人以上</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1037,8 +1075,12 @@
       <c r="M3" t="s">
         <v>35</v>
       </c>
+      <c r="N3" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M3,1))),M3,NULL)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1078,8 +1120,12 @@
       <c r="M4" t="s">
         <v>45</v>
       </c>
+      <c r="N4" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M4,1))),M4,NULL)</f>
+        <v>50-150人</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1119,8 +1165,12 @@
       <c r="M5" t="s">
         <v>56</v>
       </c>
+      <c r="N5" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M5,1))),M5,NULL)</f>
+        <v>15-50人</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1160,8 +1210,12 @@
       <c r="M6" t="s">
         <v>65</v>
       </c>
+      <c r="N6" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M6,1))),M6,NULL)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1201,8 +1255,12 @@
       <c r="M7" t="s">
         <v>56</v>
       </c>
+      <c r="N7" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M7,1))),M7,NULL)</f>
+        <v>15-50人</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1242,8 +1300,12 @@
       <c r="M8" t="s">
         <v>56</v>
       </c>
+      <c r="N8" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M8,1))),M8,NULL)</f>
+        <v>15-50人</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1283,8 +1345,12 @@
       <c r="M9" t="s">
         <v>56</v>
       </c>
+      <c r="N9" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M9,1))),M9,NULL)</f>
+        <v>15-50人</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1324,8 +1390,12 @@
       <c r="M10" t="s">
         <v>98</v>
       </c>
+      <c r="N10" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M10,1))),M10,NULL)</f>
+        <v>500-2000人</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1365,8 +1435,12 @@
       <c r="M11" t="s">
         <v>56</v>
       </c>
+      <c r="N11" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M11,1))),M11,NULL)</f>
+        <v>15-50人</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -1406,8 +1480,12 @@
       <c r="M12" t="s">
         <v>25</v>
       </c>
+      <c r="N12" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M12,1))),M12,NULL)</f>
+        <v>2000人以上</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1447,8 +1525,12 @@
       <c r="M13" t="s">
         <v>25</v>
       </c>
+      <c r="N13" t="str">
+        <f>IF(ISNUMBER( VALUE(LEFT(M13,1))),M13,NULL)</f>
+        <v>2000人以上</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -1488,9 +1570,14 @@
       <c r="M14" t="s">
         <v>65</v>
       </c>
+      <c r="N14" t="e">
+        <f>IF(ISNUMBER( VALUE(LEFT(M14,1))),M14,NULL)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>